--- a/Daftar Nama Siswa Vaksin.xlsx
+++ b/Daftar Nama Siswa Vaksin.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0BF891-4C7F-412A-B00E-16F27A787968}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="4470" xr2:uid="{62361F9B-6781-490A-AC6D-C2B4384C8E43}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="4470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
   <si>
     <t xml:space="preserve">Nama Siswa </t>
   </si>
@@ -60,12 +49,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>dst.</t>
-  </si>
-  <si>
-    <t>Jumlah</t>
-  </si>
-  <si>
     <t>Kop Sekolah</t>
   </si>
   <si>
@@ -76,19 +59,182 @@
   </si>
   <si>
     <t>Alamat</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALFA ANDIKA WAGIU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ALFIONITA VERONIKA VINA NGANGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANDRE ZIZOU RARUN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CAHAYA TANGKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DHEA THERISIA TAWAS</t>
+  </si>
+  <si>
+    <t>ELVIRA DESLY LUCIA MANUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FRISKO YOSAFAT TANGKILISAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FULGENSIA DEYU DANDUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GLENDY JORDAN KUMENDAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HIRRO ANDREW MANUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JHELYTA CERYA MANUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JUNAIDY TAKIDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> KEVIN FEBRIAN YAKUB NGANGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MARCELA BRIGITA POLII</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MIRELL MATHILDA NATASYA DOODOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NATHASYA MECTHILDIS POLUAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NEVERLY JUNITA REPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RAFAEL ADRIAN LIMBAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> REYLINA LAURENSIA WAGIU</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> RILVY GREGORIUS DOODOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TRULLY GRACIA NGANGI</t>
+  </si>
+  <si>
+    <t>CIONIA F LONTOH</t>
+  </si>
+  <si>
+    <t>GLORIA MANUA</t>
+  </si>
+  <si>
+    <t>RAFAEL CARLOS IMANUEL TANIA</t>
+  </si>
+  <si>
+    <t>VIAN RAFAEL WULLUR</t>
+  </si>
+  <si>
+    <t>MARCO DAMOPOLI</t>
+  </si>
+  <si>
+    <t>BELIEVE JUNIOR RAFAEL SUMAJOW</t>
+  </si>
+  <si>
+    <t>CAIREL MANUA</t>
+  </si>
+  <si>
+    <t>CASEY PATRICIO FILARIUS WANTANIA</t>
+  </si>
+  <si>
+    <t>CATHERINE THERSIA RUMIMPUNU</t>
+  </si>
+  <si>
+    <t>CESILIA SILA WALANGITAN</t>
+  </si>
+  <si>
+    <t>FREY CARLOS YOKU</t>
+  </si>
+  <si>
+    <t>FRIDCKODMAN TADJIBU</t>
+  </si>
+  <si>
+    <t>GABRIEL CHRISTIANO PAULUS LUMI</t>
+  </si>
+  <si>
+    <t>GERALDO PAULUS KOLOAY</t>
+  </si>
+  <si>
+    <t>GIVEN PATRIS LAURENTIUS PASEPE</t>
+  </si>
+  <si>
+    <t>JOEL GREGORIUS NGANGI</t>
+  </si>
+  <si>
+    <t>MIKHA MARIA LUDIYA OLEY</t>
+  </si>
+  <si>
+    <t>MARGARETHA MARIA TATUHAS</t>
+  </si>
+  <si>
+    <t>MARIA DIVA DIVA PERTJIS NGANGI</t>
+  </si>
+  <si>
+    <t>MARIA FRANSISCA MARCHILIA MANUA</t>
+  </si>
+  <si>
+    <t>NOVIA THERESIA PANGKEY</t>
+  </si>
+  <si>
+    <t>PRINCES BAWOLE</t>
+  </si>
+  <si>
+    <t>PUTRI KLARA POLUAKAN</t>
+  </si>
+  <si>
+    <t>RAIN YOHANES LUMI</t>
+  </si>
+  <si>
+    <t>REYLINA LAURENSIA WAGIU</t>
+  </si>
+  <si>
+    <t>RIVEN RAVAEL GIOVANI WANTANIA</t>
+  </si>
+  <si>
+    <t>ROSWITA SONIA GLORIA JEHOSUA MONTOLALU</t>
+  </si>
+  <si>
+    <t>SEVANYA PRISILIA TUWAIDAN</t>
+  </si>
+  <si>
+    <t>STEVANO WENAS</t>
+  </si>
+  <si>
+    <t>VIONA SAVERIA LUMINGKEWAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,6 +245,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Rounded MT Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -108,7 +267,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -135,32 +294,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -184,47 +317,90 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,24 +408,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -544,333 +736,1223 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A4AE89-C741-4747-B96E-2A3ADF6F4699}">
-  <dimension ref="A1:L21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J4"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="7.7109375" customWidth="1"/>
-    <col min="10" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>7</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>8</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>9</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>10</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="2" t="s">
+      <c r="B17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>15</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="K3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L3" s="9"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="9"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="B20" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>17</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>18</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>19</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>20</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>21</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>22</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>23</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>24</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>25</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>26</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>27</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>28</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>29</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>30</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>31</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>32</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>33</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>34</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>35</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>36</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>37</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>38</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>39</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>40</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>41</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>42</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>43</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>44</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>45</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>46</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>47</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>48</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>49</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>50</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>51</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>52</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>53</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>54</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>55</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>56</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>57</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>58</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>59</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>60</v>
+      </c>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>61</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>62</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>63</v>
+      </c>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>64</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>65</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>66</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>67</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>68</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>69</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>70</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H80" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>15</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="G3:I3"/>
+  <mergeCells count="8">
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Daftar Nama Siswa Vaksin.xlsx
+++ b/Daftar Nama Siswa Vaksin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="114">
   <si>
     <t xml:space="preserve">Nama Siswa </t>
   </si>
@@ -52,12 +52,6 @@
     <t>Kop Sekolah</t>
   </si>
   <si>
-    <t>Wali Kelas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kepala Sekolah </t>
-  </si>
-  <si>
     <t>Alamat</t>
   </si>
   <si>
@@ -215,19 +209,173 @@
   </si>
   <si>
     <t>VIONA SAVERIA LUMINGKEWAS</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>ARFILA AVE MARIA  MANANOHAS</t>
+  </si>
+  <si>
+    <t>CHRISTIAN JONATHAN DJAMILGO</t>
+  </si>
+  <si>
+    <t>ERICK KOLOAY</t>
+  </si>
+  <si>
+    <t>FERRY RICARDO TUEGEH</t>
+  </si>
+  <si>
+    <t>GEBY FELISYA MAKANONENG</t>
+  </si>
+  <si>
+    <t>GERALCHRIST HEXCEL PINONTOAN</t>
+  </si>
+  <si>
+    <t>GLAUDIO GREGORIUS KAUNANG</t>
+  </si>
+  <si>
+    <t>INDRI CHREYSTI CLARA BOLUNG</t>
+  </si>
+  <si>
+    <t>INTAN CLARA WAGIU</t>
+  </si>
+  <si>
+    <t>JOSHUA EBENAZHER HUTABARAT</t>
+  </si>
+  <si>
+    <t>JOY MIRAKLE JEHESKIEL TUEGEH</t>
+  </si>
+  <si>
+    <t>MARSYA DHARMAWAN</t>
+  </si>
+  <si>
+    <t>MALDINI ALBRETH KALESARAN</t>
+  </si>
+  <si>
+    <t>NOFRY FAHREL MANUA</t>
+  </si>
+  <si>
+    <t>AURELLIA KARUNIA PUTRI PANTOW</t>
+  </si>
+  <si>
+    <t>PRICILIA SUMUAL</t>
+  </si>
+  <si>
+    <t>RAFAEL RIZKY TUEGEH</t>
+  </si>
+  <si>
+    <t>RIVALDI CRESPO RONGKONUSA</t>
+  </si>
+  <si>
+    <t>RIVALDY A. F. MANIKU</t>
+  </si>
+  <si>
+    <t>WAHYUNI SULAIMAN</t>
+  </si>
+  <si>
+    <t>YACINTA SKOLASTIKA TINTINGON</t>
+  </si>
+  <si>
+    <t>JONATAN TANKUDUNG</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>ANGGUN KRISTEN KOLOAY</t>
+  </si>
+  <si>
+    <t>OLIVIA HENGKENGBALA</t>
+  </si>
+  <si>
+    <t>AVE MARIA WOLLAH</t>
+  </si>
+  <si>
+    <t>BELA KOKOTE</t>
+  </si>
+  <si>
+    <t>CHRISTIAN JONATHAN TUEGEH</t>
+  </si>
+  <si>
+    <t>FEBRIAN NGANGI</t>
+  </si>
+  <si>
+    <t>JEFREN YOHANES YUDI SAMBUAGA</t>
+  </si>
+  <si>
+    <t>JENLY DANIEL CHRISTIAN TUEGEH</t>
+  </si>
+  <si>
+    <t>JIMMY PASCOAL</t>
+  </si>
+  <si>
+    <t>MARIO RAFAEL MANUA</t>
+  </si>
+  <si>
+    <t>KEZIA TAMUNTUAN</t>
+  </si>
+  <si>
+    <t>MENIX TUEGEH</t>
+  </si>
+  <si>
+    <t>OLLYVIA HEDWIGA MANGKANG</t>
+  </si>
+  <si>
+    <t>PAULUS NUSAH</t>
+  </si>
+  <si>
+    <t>PUTRI ELISABETH NGANGI</t>
+  </si>
+  <si>
+    <t>RAFAEL DAMOPOLI</t>
+  </si>
+  <si>
+    <t>SERGITO WULLUR</t>
+  </si>
+  <si>
+    <t>VALENTINO DOMINIKUS MONTOLALU</t>
+  </si>
+  <si>
+    <t>WAHYUDA SULAIMAN</t>
+  </si>
+  <si>
+    <t>WARDANIA RARUN</t>
+  </si>
+  <si>
+    <t>EXCEL WANTANIA</t>
+  </si>
+  <si>
+    <t>RINDYANI MONGKARENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,6 +406,20 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,7 +429,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -366,12 +528,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,6 +557,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -396,10 +600,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -408,34 +609,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -736,7 +932,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -744,74 +940,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
@@ -821,22 +1018,26 @@
       <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="7"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="17"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="11" t="s">
-        <v>15</v>
+      <c r="B5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -848,12 +1049,16 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -865,12 +1070,16 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -882,12 +1091,16 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -899,12 +1112,16 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="B9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -916,12 +1133,16 @@
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="B10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -933,12 +1154,16 @@
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="B11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -950,12 +1175,16 @@
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -967,12 +1196,16 @@
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="B13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -984,12 +1217,16 @@
       <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="B14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1001,12 +1238,16 @@
       <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1018,12 +1259,16 @@
       <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1035,14 +1280,18 @@
       <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="11" t="s">
-        <v>15</v>
+      <c r="B17" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1053,12 +1302,16 @@
       <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -1069,12 +1322,16 @@
       <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1085,12 +1342,16 @@
       <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="B20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1101,12 +1362,16 @@
       <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="B21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1117,12 +1382,16 @@
       <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1133,12 +1402,16 @@
       <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1149,12 +1422,16 @@
       <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -1165,12 +1442,16 @@
       <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1181,12 +1462,16 @@
       <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1197,12 +1482,16 @@
       <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1213,12 +1502,16 @@
       <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="B28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1229,14 +1522,18 @@
       <c r="A29" s="2">
         <v>25</v>
       </c>
-      <c r="B29" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="11" t="s">
-        <v>15</v>
+      <c r="B29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -1247,12 +1544,16 @@
       <c r="A30" s="2">
         <v>26</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
+      <c r="B30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -1263,12 +1564,16 @@
       <c r="A31" s="2">
         <v>27</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="B31" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -1279,12 +1584,16 @@
       <c r="A32" s="2">
         <v>28</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="B32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1295,12 +1604,16 @@
       <c r="A33" s="2">
         <v>29</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="B33" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -1311,12 +1624,16 @@
       <c r="A34" s="2">
         <v>30</v>
       </c>
-      <c r="B34" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="B34" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -1327,12 +1644,16 @@
       <c r="A35" s="2">
         <v>31</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="B35" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1343,12 +1664,16 @@
       <c r="A36" s="2">
         <v>32</v>
       </c>
-      <c r="B36" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="B36" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -1359,14 +1684,18 @@
       <c r="A37" s="2">
         <v>33</v>
       </c>
-      <c r="B37" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="11" t="s">
-        <v>15</v>
+      <c r="B37" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -1377,12 +1706,16 @@
       <c r="A38" s="2">
         <v>34</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+      <c r="B38" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
@@ -1393,12 +1726,16 @@
       <c r="A39" s="2">
         <v>35</v>
       </c>
-      <c r="B39" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="B39" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -1409,12 +1746,16 @@
       <c r="A40" s="2">
         <v>36</v>
       </c>
-      <c r="B40" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
+      <c r="B40" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -1425,12 +1766,16 @@
       <c r="A41" s="2">
         <v>37</v>
       </c>
-      <c r="B41" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="B41" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -1441,12 +1786,16 @@
       <c r="A42" s="2">
         <v>38</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+      <c r="B42" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
@@ -1457,12 +1806,16 @@
       <c r="A43" s="2">
         <v>39</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+      <c r="B43" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -1473,12 +1826,16 @@
       <c r="A44" s="2">
         <v>40</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
+      <c r="B44" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -1489,12 +1846,16 @@
       <c r="A45" s="2">
         <v>41</v>
       </c>
-      <c r="B45" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="B45" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -1505,12 +1866,16 @@
       <c r="A46" s="2">
         <v>42</v>
       </c>
-      <c r="B46" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="B46" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -1521,12 +1886,16 @@
       <c r="A47" s="2">
         <v>43</v>
       </c>
-      <c r="B47" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
+      <c r="B47" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -1537,12 +1906,16 @@
       <c r="A48" s="2">
         <v>44</v>
       </c>
-      <c r="B48" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
+      <c r="B48" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -1553,14 +1926,18 @@
       <c r="A49" s="2">
         <v>45</v>
       </c>
-      <c r="B49" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="11" t="s">
-        <v>15</v>
+      <c r="B49" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -1571,12 +1948,16 @@
       <c r="A50" s="2">
         <v>46</v>
       </c>
-      <c r="B50" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
+      <c r="B50" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -1587,12 +1968,16 @@
       <c r="A51" s="2">
         <v>47</v>
       </c>
-      <c r="B51" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="B51" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -1603,12 +1988,16 @@
       <c r="A52" s="2">
         <v>48</v>
       </c>
-      <c r="B52" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="B52" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -1619,12 +2008,16 @@
       <c r="A53" s="2">
         <v>49</v>
       </c>
-      <c r="B53" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="B53" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -1635,12 +2028,16 @@
       <c r="A54" s="2">
         <v>50</v>
       </c>
-      <c r="B54" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
+      <c r="B54" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -1651,12 +2048,16 @@
       <c r="A55" s="2">
         <v>51</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -1667,12 +2068,22 @@
       <c r="A56" s="2">
         <v>52</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
+      <c r="B56" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H56" s="2"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
@@ -1681,11 +2092,19 @@
       <c r="A57" s="2">
         <v>53</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="2"/>
+      <c r="B57" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="3"/>
@@ -1695,12 +2114,22 @@
       <c r="A58" s="2">
         <v>54</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
+      <c r="B58" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" s="2"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
@@ -1709,10 +2138,16 @@
       <c r="A59" s="2">
         <v>55</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
+      <c r="B59" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -1723,14 +2158,22 @@
       <c r="A60" s="2">
         <v>56</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="2"/>
+      <c r="B60" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" s="2"/>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
@@ -1739,10 +2182,16 @@
       <c r="A61" s="2">
         <v>57</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
+      <c r="B61" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -1753,11 +2202,19 @@
       <c r="A62" s="2">
         <v>58</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="2"/>
+      <c r="B62" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="3"/>
@@ -1767,12 +2224,22 @@
       <c r="A63" s="2">
         <v>59</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="B63" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" s="2"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
@@ -1781,10 +2248,16 @@
       <c r="A64" s="2">
         <v>60</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
+      <c r="B64" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -1795,12 +2268,22 @@
       <c r="A65" s="2">
         <v>61</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
+      <c r="B65" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" s="2"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
@@ -1809,10 +2292,16 @@
       <c r="A66" s="2">
         <v>62</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="B66" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -1823,10 +2312,16 @@
       <c r="A67" s="2">
         <v>63</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
+      <c r="B67" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -1837,13 +2332,21 @@
       <c r="A68" s="2">
         <v>64</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
+      <c r="B68" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+      <c r="H68" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
@@ -1851,10 +2354,16 @@
       <c r="A69" s="2">
         <v>65</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
+      <c r="B69" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -1865,10 +2374,16 @@
       <c r="A70" s="2">
         <v>66</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
+      <c r="B70" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -1879,12 +2394,18 @@
       <c r="A71" s="2">
         <v>67</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="11" t="s">
-        <v>15</v>
+      <c r="B71" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -1895,12 +2416,22 @@
       <c r="A72" s="2">
         <v>68</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
+      <c r="B72" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H72" s="2"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
@@ -1909,10 +2440,16 @@
       <c r="A73" s="2">
         <v>69</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
+      <c r="B73" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -1923,25 +2460,635 @@
       <c r="A74" s="2">
         <v>70</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
+      <c r="B74" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="H74" s="2"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>71</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>72</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>73</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>74</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" s="6"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>75</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" s="6"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+    </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H80" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>12</v>
-      </c>
+      <c r="A80" s="6">
+        <v>76</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>77</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>78</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>79</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>80</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>81</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" s="6"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>82</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H86" s="6"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>83</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>84</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>85</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="6"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>86</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>87</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" s="6"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>88</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" s="6"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>89</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="6"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>90</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>91</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="6"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>92</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>93</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>94</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>95</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>96</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>97</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>98</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>99</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Daftar Nama Siswa Vaksin.xlsx
+++ b/Daftar Nama Siswa Vaksin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="116">
   <si>
     <t xml:space="preserve">Nama Siswa </t>
   </si>
@@ -356,6 +356,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Kerin Ngangi</t>
+  </si>
+  <si>
+    <t>Ivan Runtulalu</t>
   </si>
 </sst>
 </file>
@@ -545,7 +551,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -588,6 +594,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -608,24 +635,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -932,7 +941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -942,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,58 +966,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19" t="s">
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="23" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="26"/>
       <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1018,8 +1027,8 @@
       <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="17"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="24"/>
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1039,7 +1048,9 @@
       <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -1059,8 +1070,12 @@
       <c r="E6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="F6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1080,8 +1095,12 @@
       <c r="E7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1101,8 +1120,12 @@
       <c r="E8" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1122,8 +1145,12 @@
       <c r="E9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="F9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1185,8 +1212,12 @@
       <c r="E12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="F12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1206,8 +1237,12 @@
       <c r="E13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="F13" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1229,7 +1264,9 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="5"/>
@@ -1248,8 +1285,12 @@
       <c r="E15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="F15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1312,8 +1353,12 @@
       <c r="E18" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1332,8 +1377,10 @@
       <c r="E19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="F19" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="16"/>
       <c r="H19" s="2"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1352,8 +1399,12 @@
       <c r="E20" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="F20" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1472,8 +1523,12 @@
       <c r="E26" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="F26" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1512,8 +1567,12 @@
       <c r="E28" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1574,8 +1633,12 @@
       <c r="E31" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="F31" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1594,8 +1657,12 @@
       <c r="E32" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="F32" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -1634,8 +1701,12 @@
       <c r="E34" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" s="2"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -1654,8 +1725,12 @@
       <c r="E35" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="F35" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H35" s="2"/>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -1674,8 +1749,12 @@
       <c r="E36" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" s="2"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
@@ -1697,7 +1776,9 @@
       <c r="F37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="2"/>
+      <c r="G37" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" s="2"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -1716,8 +1797,12 @@
       <c r="E38" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
+      <c r="F38" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" s="2"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -1756,8 +1841,12 @@
       <c r="E40" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
+      <c r="F40" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" s="2"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -1776,8 +1865,12 @@
       <c r="E41" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
+      <c r="F41" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H41" s="2"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
@@ -1816,8 +1909,12 @@
       <c r="E43" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
+      <c r="F43" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H43" s="2"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
@@ -1856,8 +1953,12 @@
       <c r="E45" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
+      <c r="F45" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" s="2"/>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
@@ -1916,8 +2017,12 @@
       <c r="E48" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="F48" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H48" s="2"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -1939,7 +2044,9 @@
       <c r="F49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="2"/>
+      <c r="G49" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H49" s="2"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -1998,8 +2105,12 @@
       <c r="E52" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
+      <c r="F52" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H52" s="2"/>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
@@ -2058,8 +2169,12 @@
       <c r="E55" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
+      <c r="F55" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" s="2"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
@@ -2068,7 +2183,7 @@
       <c r="A56" s="2">
         <v>52</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B56" s="17" t="s">
         <v>67</v>
       </c>
       <c r="C56" s="6"/>
@@ -2092,7 +2207,7 @@
       <c r="A57" s="2">
         <v>53</v>
       </c>
-      <c r="B57" s="23" t="s">
+      <c r="B57" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -2114,7 +2229,7 @@
       <c r="A58" s="2">
         <v>54</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="17" t="s">
         <v>69</v>
       </c>
       <c r="C58" s="6" t="s">
@@ -2138,7 +2253,7 @@
       <c r="A59" s="2">
         <v>55</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B59" s="17" t="s">
         <v>70</v>
       </c>
       <c r="C59" s="6" t="s">
@@ -2158,7 +2273,7 @@
       <c r="A60" s="2">
         <v>56</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C60" s="6"/>
@@ -2182,7 +2297,7 @@
       <c r="A61" s="2">
         <v>57</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -2202,7 +2317,7 @@
       <c r="A62" s="2">
         <v>58</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="17" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="6" t="s">
@@ -2224,7 +2339,7 @@
       <c r="A63" s="2">
         <v>59</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="17" t="s">
         <v>74</v>
       </c>
       <c r="C63" s="6"/>
@@ -2248,7 +2363,7 @@
       <c r="A64" s="2">
         <v>60</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="17" t="s">
         <v>75</v>
       </c>
       <c r="C64" s="6"/>
@@ -2268,7 +2383,7 @@
       <c r="A65" s="2">
         <v>61</v>
       </c>
-      <c r="B65" s="23" t="s">
+      <c r="B65" s="17" t="s">
         <v>76</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -2292,7 +2407,7 @@
       <c r="A66" s="2">
         <v>62</v>
       </c>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="17" t="s">
         <v>77</v>
       </c>
       <c r="C66" s="6" t="s">
@@ -2312,7 +2427,7 @@
       <c r="A67" s="2">
         <v>63</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C67" s="6"/>
@@ -2332,7 +2447,7 @@
       <c r="A68" s="2">
         <v>64</v>
       </c>
-      <c r="B68" s="23" t="s">
+      <c r="B68" s="17" t="s">
         <v>79</v>
       </c>
       <c r="C68" s="6" t="s">
@@ -2354,7 +2469,7 @@
       <c r="A69" s="2">
         <v>65</v>
       </c>
-      <c r="B69" s="23" t="s">
+      <c r="B69" s="17" t="s">
         <v>80</v>
       </c>
       <c r="C69" s="6" t="s">
@@ -2374,7 +2489,7 @@
       <c r="A70" s="2">
         <v>66</v>
       </c>
-      <c r="B70" s="23" t="s">
+      <c r="B70" s="17" t="s">
         <v>81</v>
       </c>
       <c r="C70" s="6"/>
@@ -2394,7 +2509,7 @@
       <c r="A71" s="2">
         <v>67</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="17" t="s">
         <v>82</v>
       </c>
       <c r="C71" s="6"/>
@@ -2416,7 +2531,7 @@
       <c r="A72" s="2">
         <v>68</v>
       </c>
-      <c r="B72" s="23" t="s">
+      <c r="B72" s="17" t="s">
         <v>83</v>
       </c>
       <c r="C72" s="6" t="s">
@@ -2440,7 +2555,7 @@
       <c r="A73" s="2">
         <v>69</v>
       </c>
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="17" t="s">
         <v>84</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -2460,7 +2575,7 @@
       <c r="A74" s="2">
         <v>70</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="17" t="s">
         <v>85</v>
       </c>
       <c r="C74" s="6" t="s">
@@ -2484,7 +2599,7 @@
       <c r="A75" s="6">
         <v>71</v>
       </c>
-      <c r="B75" s="23" t="s">
+      <c r="B75" s="17" t="s">
         <v>86</v>
       </c>
       <c r="C75" s="6"/>
@@ -2506,7 +2621,7 @@
       <c r="A76" s="6">
         <v>72</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="17" t="s">
         <v>87</v>
       </c>
       <c r="C76" s="6"/>
@@ -2528,7 +2643,7 @@
       <c r="A77" s="6">
         <v>73</v>
       </c>
-      <c r="B77" s="23" t="s">
+      <c r="B77" s="17" t="s">
         <v>88</v>
       </c>
       <c r="C77" s="6" t="s">
@@ -2548,7 +2663,7 @@
       <c r="A78" s="6">
         <v>74</v>
       </c>
-      <c r="B78" s="25" t="s">
+      <c r="B78" s="19" t="s">
         <v>91</v>
       </c>
       <c r="C78" s="6"/>
@@ -2572,7 +2687,7 @@
       <c r="A79" s="6">
         <v>75</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C79" s="6"/>
@@ -2596,7 +2711,7 @@
       <c r="A80" s="6">
         <v>76</v>
       </c>
-      <c r="B80" s="25" t="s">
+      <c r="B80" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C80" s="6"/>
@@ -2618,7 +2733,7 @@
       <c r="A81" s="6">
         <v>77</v>
       </c>
-      <c r="B81" s="25" t="s">
+      <c r="B81" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C81" s="6"/>
@@ -2638,7 +2753,7 @@
       <c r="A82" s="6">
         <v>78</v>
       </c>
-      <c r="B82" s="25" t="s">
+      <c r="B82" s="19" t="s">
         <v>95</v>
       </c>
       <c r="C82" s="6" t="s">
@@ -2658,7 +2773,7 @@
       <c r="A83" s="6">
         <v>79</v>
       </c>
-      <c r="B83" s="25" t="s">
+      <c r="B83" s="19" t="s">
         <v>96</v>
       </c>
       <c r="C83" s="6" t="s">
@@ -2680,7 +2795,7 @@
       <c r="A84" s="6">
         <v>80</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="19" t="s">
         <v>97</v>
       </c>
       <c r="C84" s="6" t="s">
@@ -2700,7 +2815,7 @@
       <c r="A85" s="6">
         <v>81</v>
       </c>
-      <c r="B85" s="25" t="s">
+      <c r="B85" s="19" t="s">
         <v>98</v>
       </c>
       <c r="C85" s="6" t="s">
@@ -2724,7 +2839,7 @@
       <c r="A86" s="6">
         <v>82</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="6" t="s">
@@ -2748,7 +2863,7 @@
       <c r="A87" s="6">
         <v>83</v>
       </c>
-      <c r="B87" s="25" t="s">
+      <c r="B87" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C87" s="6" t="s">
@@ -2768,7 +2883,7 @@
       <c r="A88" s="6">
         <v>84</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B88" s="19" t="s">
         <v>101</v>
       </c>
       <c r="C88" s="6"/>
@@ -2788,7 +2903,7 @@
       <c r="A89" s="6">
         <v>85</v>
       </c>
-      <c r="B89" s="25" t="s">
+      <c r="B89" s="19" t="s">
         <v>102</v>
       </c>
       <c r="C89" s="6" t="s">
@@ -2810,7 +2925,7 @@
       <c r="A90" s="6">
         <v>86</v>
       </c>
-      <c r="B90" s="25" t="s">
+      <c r="B90" s="19" t="s">
         <v>103</v>
       </c>
       <c r="C90" s="6"/>
@@ -2836,7 +2951,7 @@
       <c r="A91" s="6">
         <v>87</v>
       </c>
-      <c r="B91" s="25" t="s">
+      <c r="B91" s="19" t="s">
         <v>104</v>
       </c>
       <c r="C91" s="6" t="s">
@@ -2860,7 +2975,7 @@
       <c r="A92" s="6">
         <v>88</v>
       </c>
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="19" t="s">
         <v>105</v>
       </c>
       <c r="C92" s="6"/>
@@ -2884,7 +2999,7 @@
       <c r="A93" s="6">
         <v>89</v>
       </c>
-      <c r="B93" s="25" t="s">
+      <c r="B93" s="19" t="s">
         <v>106</v>
       </c>
       <c r="C93" s="6" t="s">
@@ -2908,7 +3023,7 @@
       <c r="A94" s="6">
         <v>90</v>
       </c>
-      <c r="B94" s="25" t="s">
+      <c r="B94" s="19" t="s">
         <v>107</v>
       </c>
       <c r="C94" s="6" t="s">
@@ -2928,7 +3043,7 @@
       <c r="A95" s="6">
         <v>91</v>
       </c>
-      <c r="B95" s="28" t="s">
+      <c r="B95" s="22" t="s">
         <v>108</v>
       </c>
       <c r="C95" s="6" t="s">
@@ -2952,7 +3067,7 @@
       <c r="A96" s="6">
         <v>92</v>
       </c>
-      <c r="B96" s="25" t="s">
+      <c r="B96" s="19" t="s">
         <v>109</v>
       </c>
       <c r="C96" s="6" t="s">
@@ -2974,7 +3089,7 @@
       <c r="A97" s="6">
         <v>93</v>
       </c>
-      <c r="B97" s="26" t="s">
+      <c r="B97" s="20" t="s">
         <v>110</v>
       </c>
       <c r="C97" s="6"/>
@@ -2996,7 +3111,7 @@
       <c r="A98" s="6">
         <v>94</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="20" t="s">
         <v>111</v>
       </c>
       <c r="C98" s="6" t="s">
@@ -3016,7 +3131,7 @@
       <c r="A99" s="6">
         <v>95</v>
       </c>
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="21" t="s">
         <v>112</v>
       </c>
       <c r="C99" s="6"/>
@@ -3036,10 +3151,16 @@
       <c r="A100" s="6">
         <v>96</v>
       </c>
-      <c r="B100" s="3"/>
+      <c r="B100" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="3"/>
+      <c r="D100" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="F100" s="7" t="s">
         <v>13</v>
       </c>
@@ -3052,12 +3173,22 @@
       <c r="A101" s="6">
         <v>97</v>
       </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="6"/>
+      <c r="B101" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="D101" s="6"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="6"/>
-      <c r="G101" s="6"/>
+      <c r="E101" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" s="6"/>
       <c r="I101" s="3"/>
       <c r="J101" s="3"/>
